--- a/src/test/resources/case/testCase03.xlsx
+++ b/src/test/resources/case/testCase03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\soft\Idea\Projects\java-auto\src\test\resources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89055E01-152A-4F7F-9B9B-FEEDB9DCA1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C18E7D-268F-4B93-AA66-17D501E16837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例详情" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>Url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,38 +1426,296 @@
     <t>19</t>
   </si>
   <si>
+    <t>{"member_id":"1","amount":2}</t>
+  </si>
+  <si>
+    <t>{"member_id":"1","amount":300}</t>
+  </si>
+  <si>
+    <t>{"member_id":"1","amount":-4}</t>
+  </si>
+  <si>
+    <t>{"member_id":"1","amount":5000001}</t>
+  </si>
+  <si>
+    <t>{"member_id":"1","amount":1.1}</t>
+  </si>
+  <si>
+    <t>{"member_id":"1","amount":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"member_id":"1","amount":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"key":"X-Lemonban-Media-Type","value":"lemonban.v1"},{"key":"zs","value":"abc"}]</t>
+  </si>
+  <si>
+    <t>ExceptedInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonStr":"$.code","expected":1},{"jsonStr":"$.msg","expected":"手机号为空"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonStr":"$.code","expected":2},{"jsonStr":"$.msg","expected":"无效的手机格式"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonStr":"$.code","expected":1},{"jsonStr":"$.msg","expected":"密码为空"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonStr":"$.code","expected":2},{"jsonStr":"$.msg","expected":"密码格式为8到16位"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mobile_phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"zs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12345679"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonStr":"$.code","expected":2},{"jsonStr":"$.msg","expected":"账号已存在"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"1","amount":2}</t>
-  </si>
-  <si>
-    <t>{"member_id":"1","amount":300}</t>
-  </si>
-  <si>
-    <t>{"member_id":"1","amount":-4}</t>
-  </si>
-  <si>
-    <t>{"member_id":"1","amount":5000001}</t>
-  </si>
-  <si>
-    <t>{"member_id":"1","amount":1.1}</t>
-  </si>
-  <si>
-    <t>{"member_id":"1","amount":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"member_id":"1","amount":1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"key":"X-Lemonban-Media-Type","value":"lemonban.v1"},{"key":"zs","value":"abc"}]</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mobile_phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"13788889999"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pwd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"12345678</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"jsonStr":"$.code","expected":0},{"jsonStr":"$.msg","expected":"OK"},{"jsonStr":"$.data.type","expected":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1539,17 +1797,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1562,6 +1814,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1869,249 +2124,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.21875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="77.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2124,7 +2431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2138,71 +2445,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>52</v>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>53</v>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>53</v>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
+      <c r="E4" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
